--- a/backend/Templates/receipt template.xlsx
+++ b/backend/Templates/receipt template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c5bd70f7934313f/Documents/GitHub/LICCF/backend/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c5bd70f7934313f/Documents/GitHub/LICCF/backend/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="14_{CE96C23C-147B-4734-A80C-45CC18B190AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F55259D0-DFA2-4377-ABBC-D27D4A8C9957}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="14_{CE96C23C-147B-4734-A80C-45CC18B190AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B64C71ED-231F-4E50-97AC-F6BBDBEB28BF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F77790AD-AB3C-48E5-9140-B2F1DCB19DD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F77790AD-AB3C-48E5-9140-B2F1DCB19DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,14 +176,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -200,61 +200,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>536471</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2009775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC96396-4B34-7F0F-6C0C-977D3B036B22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4708421" y="3101975"/>
-          <a:ext cx="2660754" cy="641350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98192F77-0D71-490D-BB41-3022284A50ED}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,15 +546,15 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
@@ -745,7 +690,7 @@
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -760,15 +705,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
@@ -782,15 +727,15 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -800,6 +745,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>